--- a/Reading Material/Reading Summaries.xlsx
+++ b/Reading Material/Reading Summaries.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gearoidlacey/Documents/College/Masters/Thesis/Reading Material/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92B574E-5496-574D-9989-2A627736E043}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction to ML with Python" sheetId="1" r:id="rId1"/>
+    <sheet name="Hands On Machine Learning P2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="314">
   <si>
     <t>Chapter</t>
   </si>
@@ -431,9 +433,6 @@
     <t>Increasing C determines the influence of missclassified points making the decision boundary more bendy</t>
   </si>
   <si>
-    <t>SVM's train well but are very sensitive to parameter settings and normalising of data. Require all features to vary on a similar scale.</t>
-  </si>
-  <si>
     <t>Dataset features with different orders of magnitude have very bad effects on SVM's.</t>
   </si>
   <si>
@@ -450,13 +449,697 @@
   </si>
   <si>
     <t>KNN algorithm. Only requires training set. Finds point in training set closest to the new point then assigns the new point this label. Need to normalise the data</t>
+  </si>
+  <si>
+    <t>SVM's ( also called maximum margin classifiers )train well but are very sensitive to parameter settings and normalising of data. Require all features to vary on a similar scale.</t>
+  </si>
+  <si>
+    <t>After computing weighted sum for each hidden node, the result is applied to a non-linear function (rectified linear unit, relu) or tanh. These allow the neural network model more complicated functions than linear models could.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sklearn MLP Classifier uses 100 hidden nodes by default. Default non linearity is relu. That means 100 different line segments. </t>
+  </si>
+  <si>
+    <t>To make the decision boundary smoother add more hidden layers, add more hidden nodes or use tanh nonlinearity</t>
+  </si>
+  <si>
+    <t>Can also regularise the model using L2 regularisation like ridge. Low value of alpha means little regularisation which is what it is set to by default.</t>
+  </si>
+  <si>
+    <t>Use number of hidden nodes, number of hidden layers and alpha to control complexity of neural network. There are many more as well.</t>
+  </si>
+  <si>
+    <t>Before learning starts, the weights are set randomly, this affects the model that is learned. If the networks are large and the complexity is chosen properly this wont matter too much.</t>
+  </si>
+  <si>
+    <t>Neural networks expect data to vary in a similar way. Should have a mean of 0 and sd of 1. Need to normalise the data.</t>
+  </si>
+  <si>
+    <t>Neural networks work better on homogenous data (data that is the same type)</t>
+  </si>
+  <si>
+    <t>Learning algorithm 'adam' is sensitive to scaled data. It needs to have a mean of 0 and standard deviation of 1.</t>
+  </si>
+  <si>
+    <t>In binary classification the decision function returns a value for each observation which represents how strongly it believes that observation is of the positive class (class 1). Positive values indicate a preference for class one, and negative represents preference for the other class.</t>
+  </si>
+  <si>
+    <t>The first entry in the classes_ attribute represents which class is the negative one</t>
+  </si>
+  <si>
+    <t>The range of the decision function values is arbitrary making the outputs hard to interpret.</t>
+  </si>
+  <si>
+    <t>Predict_proba gives a prediction that that the observation belongs to each class i.e in binary classification it has an output with shape (n_samples,2). Each observation has a probability of it being class 0 and a probability of it being class 1</t>
+  </si>
+  <si>
+    <t>Summary of what models to use and when</t>
+  </si>
+  <si>
+    <t>Unsupervised Learning</t>
+  </si>
+  <si>
+    <t>Unsupervised transformations of datasets are algorithms that create new representations of the data which may be easier for humans or other ML algorithms to understand</t>
+  </si>
+  <si>
+    <t>Dimensionality reduction: datasets with many features represented in new way that summarises the essential characteristics.</t>
+  </si>
+  <si>
+    <t>MinMaxScaler - transforms everything between 0 and 1. Instantiate the scaler then call scaler.fit(Xtrain) gets the min and max value for each feature. Scaler.transform(Xtrain) applies what scaler.fit learned to the data.</t>
+  </si>
+  <si>
+    <t>Unsupervised learning: Hard to quantify how well the model worked as theres no training labels to verify against. Has to be done manually.</t>
+  </si>
+  <si>
+    <t>Use fit_transform which combines both functions into one.</t>
+  </si>
+  <si>
+    <t>Principal component analysis rotates the data so the rotated features are statistically uncorrelated.</t>
+  </si>
+  <si>
+    <t>It first finds the direction of maximum variance (component one) i.e. the direction along which most of the features are correlated with each other.</t>
+  </si>
+  <si>
+    <t>These directions are called the principal components. In general there are as many principal components as there are features in the original data.</t>
+  </si>
+  <si>
+    <t>The principal components represent the main directions of variance in the data.</t>
+  </si>
+  <si>
+    <t>PCA often used to visualise high dimensional datasets</t>
+  </si>
+  <si>
+    <t>PCA uses the correlations in the data.</t>
+  </si>
+  <si>
+    <t>The axis in the PCA plot are generally not very interpretable as they are based on combinations of features. The principal components correspond to directions in the original data. These combinations are usually very complex.</t>
+  </si>
+  <si>
+    <t>The components are stored in the components_ attribute. They are stored by there importance.</t>
+  </si>
+  <si>
+    <t>PCA is also used for feature extraction. The idea of feature extraction is there may be a better way to represent your data for analysis compared to the original data.</t>
+  </si>
+  <si>
+    <t>Non-negative matrix factorization. Unsupervised learning algorithm. In NMF we want the components and coefficients to be &gt;= 0,</t>
+  </si>
+  <si>
+    <t>Therefore NMF can only be applied to datasets where the features are all non-negative.  NMF components are more interpretable that PCA.</t>
+  </si>
+  <si>
+    <t>In NMF the components are the directions from the point (0,0) towards the data</t>
+  </si>
+  <si>
+    <t>NMF dependent on the number of components. The components point towards extremes in the data. If theres only 1 component it points toward the mean. Components in NMF are not ordered in any specific way.</t>
+  </si>
+  <si>
+    <t>Manifold learning with t-SNE: provide better visualisations and more complex mappings than previous 2 algorithms</t>
+  </si>
+  <si>
+    <t>Manifold learning can be used for EDA. Rarely used if the end goal is a supervised learning problem.</t>
+  </si>
+  <si>
+    <t>The idea behind t-SNE is to find a 2d represtation of the data that preserves distances. T-SNE starts by making the data into a random 2d representation it then tries to preserve the distances between the data points in the original data as much as possible.</t>
+  </si>
+  <si>
+    <t>K-means clustering tries to find cluster centers that are representative of certain regions. Does 2 steps: assign each data point to the closest cluster center and then setting each cluster center as the mean of the data points closest to it.</t>
+  </si>
+  <si>
+    <t>Begins by setting a specified number of random centroids. Begins first of k iterations. Each data point assigned to closest centroid. Centroid updated. Processed repeated for k -1 iterations.</t>
+  </si>
+  <si>
+    <t>During training each point is assigned a cluster label. The cluster labels have no meaning they simply represent different clusters.</t>
+  </si>
+  <si>
+    <t>Even if you know the number of clusters in a dataset kmeans may not find them. Assumes all clusters have same diameter.</t>
+  </si>
+  <si>
+    <t>Kmeans assumes all directions are equally important. Not good if the data is linear for example.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you look at the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> features after they have been scaled you may notice some of them are not between 0 and 1, that’s because it uses the feature minimum and maximums from the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>training</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data.</t>
+    </r>
+  </si>
+  <si>
+    <t>It then finds the direction that contains the most information at an angle of 90 from component one. This is only a 2d example. Component 1 is rotated to be parallel to the x axis and component 2 is parallel to the y axis. The mean of each feature is removed so that they center on the line 0, 0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>In PCA we try to write a data point as a weighted sum of components</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In PCA we wanted components that were at 90 degrees to each other that explained as much of the variance as possible.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://georgemdallas.wordpress.com/2013/10/30/principal-component-analysis-4-dummies-eigenvectors-eigenvalues-and-dimension-reduction/</t>
+  </si>
+  <si>
+    <t>PCA tries find directions of maximum variance i.e. a line that splits the points so that the distance between each point on the projected line is greatest.</t>
+  </si>
+  <si>
+    <t>Uses Eigenvectors and Eigenvalues. Eigenvectors and values come in pairs. Eigenvectors represent the direction of the line (e.g vertical , horizontal, 45 degresse), the eigenvalue tells you how much variance there is in the the data in that direction. So the eigenvector with the highest eigenvalue is the principal component</t>
+  </si>
+  <si>
+    <t>The number of eigenvector, eiganvalue pairs is equal to the number of features in the dataset.</t>
+  </si>
+  <si>
+    <t>Eigenvectors put the data into new dimensions. In essence the data is reframed in a new dimension. (smaller graph with smaller axis)</t>
+  </si>
+  <si>
+    <t>The reason for looking for directions of maximum variance is this is where you can get the most information from. If all the data points were the same you wouldn’t get any information.</t>
+  </si>
+  <si>
+    <t>Agglomerative clustering - collection of clustering algorithms that all build upon the same principles. Algorithm starts by declaring each point its own cluster. Similar cluster then join until some criteria is met.</t>
+  </si>
+  <si>
+    <t>In scikit learn the stopping criteria is the number of clusters so if I set it to 2 the clusters will merge until there are only 2 big clusters left.</t>
+  </si>
+  <si>
+    <t>Agglomerative clustering has no predict method. Use fit_predict on the training set.</t>
+  </si>
+  <si>
+    <t>Agglomerative clustering produces a hierarchical clustering. Hierarchical cluster shows how the clusters formed over each of the iterations. Look at diagram in book.</t>
+  </si>
+  <si>
+    <t>Dendograms used to visualise hierarchical clustering in higher dimensions</t>
+  </si>
+  <si>
+    <t>DBSCAN (Density Based Spatial Clustering of Applications with Noise) - don’t need to specify how many clusters, can capture complex shapes and can identify points that are not part of any cluster.</t>
+  </si>
+  <si>
+    <t>Finds dense regions or data. Contain core samples. Min_samples and eps are main parameters</t>
+  </si>
+  <si>
+    <t>Algorithm works by picking random point to start with. Finds all points within eps or less. If this is less than min_samples then the starting point is labelled as noise otherwise its labelled as core sample.</t>
+  </si>
+  <si>
+    <t>Then all neighbours within eps of start point are visited and assigned cluster label. Pick new start point and repeat.</t>
+  </si>
+  <si>
+    <t>Min_samples specifies number of samples within distance eps to the start point, for the start point to be a core sample. Core samples that are close together are put in same cluster.</t>
+  </si>
+  <si>
+    <t>Increasing eps means more points will be inclueded in a cluster. Increasing min_samples means fewer points will be core samples and instead increase the number labelled as noise.</t>
+  </si>
+  <si>
+    <t>Min samples defines the minimum cluster size.</t>
+  </si>
+  <si>
+    <t>Metrics to assess outcomes of clustering. Adjusted Rand Index (ARI) and Normalized Mutual Information (NMI). In both cases 1 is the optimum and 0 means unrelated clusterings.</t>
+  </si>
+  <si>
+    <t>Don’t use accuracy score for clustering algorithms as accuracy score requires cluster labels to match exactly the real labels. Labels are meaningless all that matters is which points are in the same cluster.</t>
+  </si>
+  <si>
+    <t>One problem when using ARI is there is usually no ground truth to compare to.</t>
+  </si>
+  <si>
+    <t>Sillhouette coefficients don’t need ground truth. It computes the compactness of a cluster where 1 is the optimal</t>
+  </si>
+  <si>
+    <t>Representing Data &amp; Feature Engineering</t>
+  </si>
+  <si>
+    <t>Feature Engineering: how best to represent your data.</t>
+  </si>
+  <si>
+    <t>One hot encoding (dummy variables). Most common way represent categorical features. So if you have a column eye colour for example that has the values blue, green  and brown you then separate this into three columns called blue, green brown and assign a cell the value 1 to whichever category you need</t>
+  </si>
+  <si>
+    <t>Pandas has a get_dummies function that transforms all pandas columns that have an object type or categorical type.</t>
+  </si>
+  <si>
+    <t>When performing feature engineering on data, should do it for both training and test set at same time incase test data doesn’t include the same number of categories for a variable as the train set.</t>
+  </si>
+  <si>
+    <t>Scikit learns OneHotEncoder fixes this by getting the user to specifiy the categorical columns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: get_dummies function treats all numbers as continous therefore if you have a categorical variable encoded as numbers e.g. 0 - 8 it will not recognise it as a categorical variable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To improve linear models use binning(discretization) </t>
+  </si>
+  <si>
+    <t>If relationship is non linear try using log or exp of features. Most models work best when the data is loosly normally distributed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count data often follows a poisson distribution where there are many small values and some large values in the distribution </t>
+  </si>
+  <si>
+    <t>Adding more features makes models more complex. Need to reduce to the features that are most important.</t>
+  </si>
+  <si>
+    <t>To determine how good a feature is you can use: univariate statistics, model-based selection, or iterative selection.</t>
+  </si>
+  <si>
+    <t>Univariate statistics: compute if theres a statistically significant relationship between feature and target. E.g. ANOVA. They only look at each feature independantly and pick the best featuers based on p-value for example.</t>
+  </si>
+  <si>
+    <t>For univariate feature selections use f_classif for classification or f_regression for regression</t>
+  </si>
+  <si>
+    <t>Generally univariate statistics are used when there are a large number of features.</t>
+  </si>
+  <si>
+    <t>Model-based feature selection: uses a supervised machine learning model to determine the importance of the features and keep only the most important ones.</t>
+  </si>
+  <si>
+    <t>Model based feature selection considers all features at once, therefore it can consider interactions of the features</t>
+  </si>
+  <si>
+    <t>Iterative feature selection:a series of models are built with varying numbers of features. You can start with no features and add one at a time or start with all features and recursively remove them until some stopping criterion is met. Computationally expensive.</t>
+  </si>
+  <si>
+    <t>Domain knowledge importance: e.g. predicting flight prices, holidays like christmas are on set dates so the model will learn this pattern by holidays like easter change date every year so the model will not learn this whereas someone with domain knowledge with intuitively know that prices will increase during easter holiday</t>
+  </si>
+  <si>
+    <t>For time series data we need to have training data up to a certain date and then test date from that date on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: tree based models cannot extrapolate to values outside the training set </t>
+  </si>
+  <si>
+    <t>Model Evaluation and Improvement</t>
+  </si>
+  <si>
+    <t>The reason for train test split is we want to see how well the model generalises.</t>
+  </si>
+  <si>
+    <t>Cross validation: method evaluate generalisation performance of model. K fold cross validation most common. Data split into k folds of equal size each time 1 fold used as test set.</t>
+  </si>
+  <si>
+    <t>Cant use cross validation on time series data as the folding process wont preserve the time ordering.</t>
+  </si>
+  <si>
+    <t>If the variance of the cross validation scores is high it may mean the model is dependent on particular folds or theres not enough data.</t>
+  </si>
+  <si>
+    <t>NOTE: train_test_split function randomly splits the data.</t>
+  </si>
+  <si>
+    <t>Benefits of cross validation: each observation is in the test set and a train set once and each fold is the test set exactly once. Therefore the cross validation models need to generalise well to all data.</t>
+  </si>
+  <si>
+    <t>Having multiple splits of the data also reveals how bad or good the model may be on unseen data. E.g the worst cross validation score may be 90% and the best may be 98%</t>
+  </si>
+  <si>
+    <t>Normally when using the validation set approach we use a 75:25 split but when using 10 fold cross validation your actually using a 90:10 split so your making better use of the data for training.</t>
+  </si>
+  <si>
+    <t>Main disadvantage of cross validation: computationally expensive as we are making k models.</t>
+  </si>
+  <si>
+    <t>Use stratified cross validation for classification. See example on page 257</t>
+  </si>
+  <si>
+    <t>Stratified cross validation works so that the proportions of classes are the same.</t>
+  </si>
+  <si>
+    <t>Leave one out cross validation good for small datasets as its computationally expensive</t>
+  </si>
+  <si>
+    <t>Shuffle split cross validation randomly sample x amount of points from the train set and y amount of points from the test set. This form of subsampling can be good for large datasets</t>
+  </si>
+  <si>
+    <t>Cross validation is good when there are groups within the data. Use GroupKfold. The group labels ensure that members of the same group do not appear in train and test sets.</t>
+  </si>
+  <si>
+    <t>Examples of groups are multiple samples from the same person in medicine or in voice recognition multiple recordings of the same person.</t>
+  </si>
+  <si>
+    <t>Grid search is used to try find all possible combinations of a parameter of interest</t>
+  </si>
+  <si>
+    <t>As the test data is used to adjust the parameters it can no longer be used to determine how good the model is. Therefore we need 3 splits - a train set, validation set and test set</t>
+  </si>
+  <si>
+    <t>You train with the train set and validate with the validation set for each of the parameters in your grid search. Once you have found the optimal parameters you combine the the train and validation set and, train the new model and then use the evaluation set.</t>
+  </si>
+  <si>
+    <t>A data leak is when some data that’s in the training set also occurs in the test set</t>
+  </si>
+  <si>
+    <t>GridSearchCV performs both grid search and cross validation as they are used in common so often. Before using it we still need to extract a test set to evaluate the optimal model.</t>
+  </si>
+  <si>
+    <t>GridSearchCV will build all the models assess them, pick the best one and fit the best one to the test data.</t>
+  </si>
+  <si>
+    <t>Use a heat map to visualise the results of grid search.</t>
+  </si>
+  <si>
+    <t>It is usually good to try very extreme values of the parameters first to see if theres any major changes in the performance of the model.</t>
+  </si>
+  <si>
+    <t>The param_grid option is used to specify a list of dictionaries where each dictionary represents a different grid.</t>
+  </si>
+  <si>
+    <t>Nested cross validation: perform multiple outer splits each of which is used to do multiple inner splits which are then used for a grid search. Then the test set score for each outer loop is reported using the best parameters of the inner data.</t>
+  </si>
+  <si>
+    <t>Cross validation and grid search can be done in parallel. Building a model using particular parameter settings can be done independently from other setttings and models.</t>
+  </si>
+  <si>
+    <t>Scikit learn does not allow nesting of parallel operations</t>
+  </si>
+  <si>
+    <t>Often accuracy is not a good measure of predictive performance as number of mistakes made doesn’t contain all the information we need.</t>
+  </si>
+  <si>
+    <t>E.g in a medical model you could have false positives (Type 1 error) or false negatives (Type 2 error) both of which would be bad. In commercial applications $ values could be assigned to these type of errors which would be a better indicator of the performance of the model in comparison to accuracy</t>
+  </si>
+  <si>
+    <t>On imbalanced data accuracy isnt really a good measure. E.g in the kaggle competition if you predict no download on a sample of 85,000,000 rows it would be roughly 99.5% accurate.</t>
+  </si>
+  <si>
+    <t>Confusion matrices are one of the best ways to evaluate binary classification. Actual values are on the y axis and predicted values on the x axis.</t>
+  </si>
+  <si>
+    <t>Using the confusion matrix the accuracy is (TP + TN) / (TP+TN + FP + FN)</t>
+  </si>
+  <si>
+    <t>Recall (Sensitivity) measures how many positive samples are captured by the positive predictions. Used when its important to avoid FN's</t>
+  </si>
+  <si>
+    <t>Several other ways to sumarize confusion matrices. Precision (specificity): measures how many samples pridicted as positive are actually positive: TP / (TP + FP). Precision is used as a performance metric when the aim is to reduce the number of FP's. E.g drug trials, v expensive need ensure high TP</t>
+  </si>
+  <si>
+    <t>F scores are used to summarise precision and recall. Formula on page 286. Generally better for imbalanced binary classification.</t>
+  </si>
+  <si>
+    <t>F score is harder interpret and explain in comparison to accuracy</t>
+  </si>
+  <si>
+    <t>The classification_report module computes all three values at once for us.</t>
+  </si>
+  <si>
+    <t>In kaggle comp I need to have a high recall which means a sacrafice of more false positives - done by adjusting the threshold of predict_proba or the decision_function. By default points with decision function value greater than 0 are classified as 1 so to increase recall need to decrease decision_function threshold</t>
+  </si>
+  <si>
+    <t>Operating point: setting a requirement on a classifier like 90% recall. Often hard to determine this point. Use precision-recall curve.</t>
+  </si>
+  <si>
+    <t>The closer the curve is to the upper right hand corner (high precision and high recall)</t>
+  </si>
+  <si>
+    <t>The f1 score only captures the point on the precision-recall curve given by the threshold</t>
+  </si>
+  <si>
+    <t>Comparing precision recall curves is a manual process. We want to summarize the information on these curves without limiting us to particular thresholds/operating points. One way is to look at area under the curve (average precision)</t>
+  </si>
+  <si>
+    <t>ROC Curve: reciever operating characteristics curve. Used to analyse classifiers at</t>
+  </si>
+  <si>
+    <t>Roc curve considers all possible thresholds but instead of precision and recall it looks at false positive rate (FPR) and true positive rate (TPR aka recall). FPR is the fraction of false positives out of all negative samples.</t>
+  </si>
+  <si>
+    <t>For roc curve the ideal curve is in the top left corner. Want high recall and low FPR</t>
+  </si>
+  <si>
+    <t>Like precision recall curve we want to summarise the graph so we use AUROC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUROC is like evaluating the ranking of positive samples. So a randomly sampled observation from the positive class should have a higher score than a randomly </t>
+  </si>
+  <si>
+    <t>Metrics for multiclass classification are similar to binary classification but averaged. Use confusion matrices and classification report</t>
+  </si>
+  <si>
+    <t>Most common metric for multiclass classification is f-score. Compute binary f score for each class then take the average of all the f scores.</t>
+  </si>
+  <si>
+    <t>The f scores are average using 3 strategies : macro (average of all scores), weighted (weighted average using the support collumn in classification report) and micro (uses total number of FP's FN's and TP's over all classes gets precision, recall and fscore using these counts)</t>
+  </si>
+  <si>
+    <t>Algorithms Chains and Pipelines</t>
+  </si>
+  <si>
+    <t>Any process that extracts knowledge from the dataset should only be learned using the training data.</t>
+  </si>
+  <si>
+    <t>Pipeline class allows us glue together multiple processing steps. Most commonly used to chain preprocessing steps together (scaling data) with a supervised model</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Up and Running With TensorFlow</t>
+  </si>
+  <si>
+    <t>Principle of TensorFlow: define graph of computations to perform. TensorFlow runs the graph efficiently using C++ optimized code</t>
+  </si>
+  <si>
+    <t>Can break the graph into chunks and run in parallel across multiple CPU's/GPU's</t>
+  </si>
+  <si>
+    <t>TensorFlow has good design scalability flexibility and plenty documentation</t>
+  </si>
+  <si>
+    <t>TensorFlow can run on mobile devices. Has a python API called TF.Learn</t>
+  </si>
+  <si>
+    <t>TensorBoard allows you visualise the computation graph</t>
+  </si>
+  <si>
+    <t>The Machine Learning Landscape</t>
+  </si>
+  <si>
+    <t>Spam filter first ML application that became mainstream</t>
+  </si>
+  <si>
+    <t>Fitness function: how good your system is. Cost function: how bad your system is  (RSS, MSRE)</t>
+  </si>
+  <si>
+    <t>More data generally improves a model. Training data needs to be representative of the test data</t>
+  </si>
+  <si>
+    <t>Sampling bias: sample is non representative of the data as sampling method is flawed</t>
+  </si>
+  <si>
+    <t>Bad quality data makes finding patterns hard. Models need good features, not irrelevant ones.</t>
+  </si>
+  <si>
+    <t>Feature engineering involves: feature selection, feature extraction(combining), get new data.</t>
+  </si>
+  <si>
+    <t>Overfitting occurs when the model is too complex compared to noiseness of the data. Regularization helps this.</t>
+  </si>
+  <si>
+    <t>Underfitting: model is too simple, cant determine a pattern</t>
+  </si>
+  <si>
+    <t>Instance based learning (learn by heart) - the system learns the training data by heart (KNN) then uses a similarity measure (KNN: Euclidean distance) to classify new points. Model based learning: build model based on training data, make predictions on test data.</t>
+  </si>
+  <si>
+    <t>Batch learning (offline learning) - system is trained on all the data at once. When new data is sourced The algorithm is retrained on the old and new data. Online learning: algorithm trained incrementally in batches.</t>
+  </si>
+  <si>
+    <t>If train accuracy is high but test accuracy is low then you have overfit the training data. If train accuracy is lower that test accuracy then you are underfitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you train multiple models and change multiple parameters based on the results of the test set the model will likely overfit in production as you have really trained the model to do well on that test set by using that test set to determine what parameters to change. </t>
+  </si>
+  <si>
+    <t>Therefore you need a training set, test set and validation set. But you only used the test set when you have determined the final model.</t>
+  </si>
+  <si>
+    <t>No Free Lunch (NFL) theorem: need to make assumptions about data for a model to work.</t>
+  </si>
+  <si>
+    <t>End To End Machine Learning Project</t>
+  </si>
+  <si>
+    <t>A signal is a piece of info passed to a ML algorithm</t>
+  </si>
+  <si>
+    <t>Pipelines: sequence of data processing steps.</t>
+  </si>
+  <si>
+    <t>RMSE often used for regression problems. Could also use Mean Absolute Error (MAE) if there are lots of outliers.</t>
+  </si>
+  <si>
+    <t>RMSE also called Euclidean norm (l2 norm).</t>
+  </si>
+  <si>
+    <t>MAE is also called Manhattan norm (l1 norm) distance between two points if you can only travel orthogonally.</t>
+  </si>
+  <si>
+    <r>
+      <t>The higher the l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> index the more it focuses on small values and neglects large ones. Hence RMSE is sensitive to outliers.</t>
+    </r>
+  </si>
+  <si>
+    <t>The standard deviation is the square root of the variance which is the average squared deviation from the mean</t>
+  </si>
+  <si>
+    <t>Should always create your test set before analysis and only perform your EDA on the training set.</t>
+  </si>
+  <si>
+    <t>Pandas scatter matrix function is used to plot each variable against all others. Only useful if there is a very small amount of features</t>
+  </si>
+  <si>
+    <t>Scikit Learn has an imputer class which is used to fill in missing values in a dataset using some strategy e.g. the median of a column</t>
+  </si>
+  <si>
+    <t>Scikit Learn consists of Estimaters (e.g imputer class, used to find parameters), Transformers(e.g. imputer class used to transform dataset using some found parameters) and predictors(used to generate predictions)</t>
+  </si>
+  <si>
+    <t>Pandas has a factorise method which maps categories to a number</t>
+  </si>
+  <si>
+    <t>If you have a categorical feature encoded as numbers, ML algorithms assume numbers close together are related which may not be the case if category 1 and category 4 are related for example, the algorithm will assume category 1 and 2 have a stronger relationship, therefore need to use one hot encoding.</t>
+  </si>
+  <si>
+    <t>Standardisation is different from minmax scaler as the data will have mean 0 and  unit variance</t>
+  </si>
+  <si>
+    <t>Standardisation is less effected by outliers.</t>
+  </si>
+  <si>
+    <t>Scikit learns featureUnion class is used to join pipelines into 1. Each transformation in the pipeline is run in parallel and their outputs are concatenated.</t>
+  </si>
+  <si>
+    <t>When grid search cv finds the optimal parameters it retrains the model on the whole training set.</t>
+  </si>
+  <si>
+    <t>When the search space is large use RandomisedSearchCV. Instead of trying all combinations like in GridSearchCV it randomly tries different combinations for a user specified amount of iterations.</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>SGD: stochastic gradient decent good on large volumes of data. Looks at training instances independently. Good for online learning.</t>
+  </si>
+  <si>
+    <t>Stochastic means it relies on randomness</t>
+  </si>
+  <si>
+    <t>Evaluating classifiers is generally harder than evaluating regressors</t>
+  </si>
+  <si>
+    <t>Cross_val_predict returns predictions instead of accuracy scores</t>
+  </si>
+  <si>
+    <t>Confusion matrices give you a lot of information but sometimes we would like to summarise this information</t>
+  </si>
+  <si>
+    <t>Precision: how many of the predicted positive classes are actually positive</t>
+  </si>
+  <si>
+    <t>Recall (AKA sensitivity, TPR): of the total number of positive classes, how many were predicted as positive.</t>
+  </si>
+  <si>
+    <t>Precision and recall are often combined into an F1 score. F1 score is the harmonic mean of precision and recall scores.</t>
+  </si>
+  <si>
+    <t>Generally increasing precision reduces recall.</t>
+  </si>
+  <si>
+    <t>To look at precision and recall you would generally use a decision function instead of the standard predict method. You then use a threshold to determine which class an observation belongs to.</t>
+  </si>
+  <si>
+    <t>Then using the cross_val_predict method and telling it to use a decision function, you can calculate the precision and recall curve over all possible thresholds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROC curve often used on binary classifiers. Plots TPR(recall) vs FPR. FPR = ratio of negative instances classified as positive. </t>
+  </si>
+  <si>
+    <t>FPR is equal to 1 - TNR. TNR is the ratio of negative instances classified as negative. TNR is also called specificity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the precision recall curve when the positive class is rare or when you care more about false positives. </t>
+  </si>
+  <si>
+    <t>To plot a ROC curve you need scores not probabilities</t>
+  </si>
+  <si>
+    <t>SVM's or linear classifiers are only used for binary classification.</t>
+  </si>
+  <si>
+    <t>One versus all: if you want to classify digits 1 to 9 create a binary classifier for each digit. Predict score for each digit and take the one with the highest score</t>
+  </si>
+  <si>
+    <t>SVM's scale poorly to large datasets.</t>
+  </si>
+  <si>
+    <t>Scikit learn automatically detects when your trying to run a binary classification algorithm on a multiclass problem and automatically runs one versus all (or one v one in the case of SVM's)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -484,6 +1167,16 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -506,7 +1199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -529,6 +1222,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -539,6 +1235,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -806,24 +1505,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A229" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="73" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="64.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="48.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,7 +1542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="256" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="256">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -860,7 +1559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="32">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -877,7 +1576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -888,7 +1587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="32">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -899,7 +1598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -913,7 +1612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -927,7 +1626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -938,7 +1637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -952,7 +1651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="32">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -966,7 +1665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="32">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -980,7 +1679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="32">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -988,13 +1687,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1008,7 +1707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1022,7 +1721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="64">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -1033,7 +1732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1047,7 +1746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="64">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1061,7 +1760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="32">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1075,7 +1774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="32">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1089,7 +1788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="32">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -1103,7 +1802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -1114,7 +1813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="48">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -1125,7 +1824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="48">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1139,7 +1838,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1153,7 +1852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="32">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -1167,7 +1866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="32">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -1181,7 +1880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="32">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -1195,7 +1894,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="48">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1209,7 +1908,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="32">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -1223,7 +1922,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="80">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -1234,7 +1933,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="32">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -1248,7 +1947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="64">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -1262,7 +1961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1276,7 +1975,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="32">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -1290,7 +1989,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="48">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -1301,7 +2000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -1312,7 +2011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="32">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1326,7 +2025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="64">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -1337,7 +2036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -1348,7 +2047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="32">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -1362,7 +2061,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -1373,7 +2072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="64">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -1387,7 +2086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -1398,7 +2097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -1409,7 +2108,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="80">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -1423,7 +2122,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -1437,7 +2136,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -1451,7 +2150,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="32">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -1465,7 +2164,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="32">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -1479,7 +2178,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="32">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -1490,7 +2189,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="32">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -1504,7 +2203,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="48">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -1518,7 +2217,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -1529,7 +2228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -1540,7 +2239,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -1554,7 +2253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -1568,7 +2267,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="32">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -1582,7 +2281,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -1593,7 +2292,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -1604,7 +2303,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="32">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -1615,7 +2314,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -1629,7 +2328,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -1640,7 +2339,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="32">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -1651,7 +2350,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="32">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -1662,7 +2361,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="32">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -1676,7 +2375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -1687,7 +2386,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -1701,7 +2400,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -1712,7 +2411,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="48">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -1723,7 +2422,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="32">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -1737,7 +2436,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="48">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -1751,7 +2450,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="80">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -1762,7 +2461,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="32">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -1773,7 +2472,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="48">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -1787,7 +2486,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="32">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -1801,7 +2500,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="32">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -1812,7 +2511,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="48">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -1823,7 +2522,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -1837,7 +2536,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="64">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -1851,7 +2550,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -1862,7 +2561,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="64">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -1876,7 +2575,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="32">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -1890,7 +2589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="64">
       <c r="A83" s="1">
         <v>2</v>
       </c>
@@ -1901,7 +2600,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="32">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -1912,7 +2611,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="48">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -1926,7 +2625,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="32">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -1937,7 +2636,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="48">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -1951,7 +2650,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="48">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -1962,7 +2661,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -1976,7 +2675,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="64">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -1990,7 +2689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="48">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -2001,7 +2700,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="32">
       <c r="A92" s="1">
         <v>2</v>
       </c>
@@ -2012,7 +2711,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="32">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -2026,7 +2725,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="32">
       <c r="A94" s="1">
         <v>2</v>
       </c>
@@ -2040,7 +2739,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="48">
       <c r="A95" s="1">
         <v>2</v>
       </c>
@@ -2048,24 +2747,24 @@
         <v>22</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>2</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>2</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="D96" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>2</v>
       </c>
@@ -2073,24 +2772,24 @@
         <v>22</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="64">
+      <c r="A98" s="1">
+        <v>2</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>2</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="D98" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>2</v>
       </c>
@@ -2098,13 +2797,13 @@
         <v>22</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D99" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="32">
       <c r="A100" s="1">
         <v>2</v>
       </c>
@@ -2112,17 +2811,2565 @@
         <v>22</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D100" s="1">
         <v>108</v>
       </c>
     </row>
+    <row r="101" spans="1:4" ht="48">
+      <c r="A101" s="1">
+        <v>2</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="32">
+      <c r="A102" s="1">
+        <v>2</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D102" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="32">
+      <c r="A103" s="1">
+        <v>2</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="32">
+      <c r="A104" s="1">
+        <v>2</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D104" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="32">
+      <c r="A105" s="1">
+        <v>2</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="48">
+      <c r="A106" s="1">
+        <v>2</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="32">
+      <c r="A107" s="1">
+        <v>2</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>2</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="32">
+      <c r="A109" s="1">
+        <v>2</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="64">
+      <c r="A110" s="1">
+        <v>2</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>2</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="32">
+      <c r="A112" s="1">
+        <v>2</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="48">
+      <c r="A113" s="1">
+        <v>2</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D113" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>2</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="48">
+      <c r="A115" s="1">
+        <v>3</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="32">
+      <c r="A116" s="1">
+        <v>3</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="32">
+      <c r="A117" s="1">
+        <v>3</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="48">
+      <c r="A118" s="1">
+        <v>3</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="48">
+      <c r="A119" s="1">
+        <v>3</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D119" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>3</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="32">
+      <c r="A121" s="1">
+        <v>3</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D121" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="32">
+      <c r="A122" s="1">
+        <v>3</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="64">
+      <c r="A123" s="1">
+        <v>3</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="32">
+      <c r="A124" s="1">
+        <v>3</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>3</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>3</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>3</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D127" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="48">
+      <c r="A128" s="1">
+        <v>3</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="32">
+      <c r="A129" s="1">
+        <v>3</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="32">
+      <c r="A130" s="1">
+        <v>3</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D130" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="32">
+      <c r="C131" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="64">
+      <c r="C132" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="32">
+      <c r="C133" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="32">
+      <c r="C134" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="48">
+      <c r="C135" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="48">
+      <c r="A137" s="1">
+        <v>3</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="32">
+      <c r="A138" s="1">
+        <v>3</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="32">
+      <c r="A139" s="1">
+        <v>3</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>3</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="48">
+      <c r="A141" s="1">
+        <v>3</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="32">
+      <c r="A142" s="1">
+        <v>3</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="32">
+      <c r="A143" s="1">
+        <v>3</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D143" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="64">
+      <c r="A144" s="1">
+        <v>3</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="48">
+      <c r="A145" s="1">
+        <v>3</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="48">
+      <c r="A146" s="1">
+        <v>3</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="32">
+      <c r="A147" s="1">
+        <v>3</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D147" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="32">
+      <c r="A148" s="1">
+        <v>3</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="32">
+      <c r="A149" s="1">
+        <v>3</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="48">
+      <c r="A150" s="1">
+        <v>3</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D150" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="32">
+      <c r="A151" s="1">
+        <v>3</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>3</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="32">
+      <c r="A153" s="1">
+        <v>3</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D153" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>3</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="48">
+      <c r="A155" s="1">
+        <v>3</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="32">
+      <c r="A156" s="1">
+        <v>3</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="48">
+      <c r="A157" s="1">
+        <v>3</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="48">
+      <c r="A158" s="1">
+        <v>3</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D158" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="32">
+      <c r="A159" s="1">
+        <v>3</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D159" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="48">
+      <c r="A160" s="1">
+        <v>3</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>3</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="48">
+      <c r="A162" s="1">
+        <v>3</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="48">
+      <c r="A163" s="1">
+        <v>3</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>3</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="32">
+      <c r="A165" s="1">
+        <v>3</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>4</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D166" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="64">
+      <c r="A167" s="1">
+        <v>4</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="32">
+      <c r="A168" s="1">
+        <v>4</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D168" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="48">
+      <c r="A169" s="1">
+        <v>4</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="48">
+      <c r="A170" s="1">
+        <v>4</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="32">
+      <c r="A171" s="1">
+        <v>4</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D171" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>4</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="32">
+      <c r="A173" s="1">
+        <v>4</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D173" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="32">
+      <c r="A174" s="1">
+        <v>4</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D174" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="32">
+      <c r="A175" s="1">
+        <v>4</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="32">
+      <c r="A176" s="1">
+        <v>4</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D176" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="48">
+      <c r="A177" s="1">
+        <v>4</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="32">
+      <c r="A178" s="1">
+        <v>4</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D178" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>4</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="32">
+      <c r="A180" s="1">
+        <v>4</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="32">
+      <c r="A181" s="1">
+        <v>4</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="64">
+      <c r="A182" s="1">
+        <v>4</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D182" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="64">
+      <c r="A183" s="1">
+        <v>4</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D183" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="32">
+      <c r="A184" s="1">
+        <v>4</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>4</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D185" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>5</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="48">
+      <c r="A187" s="1">
+        <v>5</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D187" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="32">
+      <c r="A188" s="1">
+        <v>5</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="32">
+      <c r="A189" s="1">
+        <v>5</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D189" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>5</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="48">
+      <c r="A191" s="1">
+        <v>5</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D191" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="48">
+      <c r="A192" s="1">
+        <v>5</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="48">
+      <c r="A193" s="1">
+        <v>5</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="32">
+      <c r="A194" s="1">
+        <v>5</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>5</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D195" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>5</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="32">
+      <c r="A197" s="1">
+        <v>5</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="48">
+      <c r="A198" s="1">
+        <v>5</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D198" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="48">
+      <c r="A199" s="1">
+        <v>5</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="32">
+      <c r="A200" s="1">
+        <v>5</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>5</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D201" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="48">
+      <c r="A202" s="1">
+        <v>5</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D202" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="64">
+      <c r="A203" s="1">
+        <v>5</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>5</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D204" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="48">
+      <c r="A205" s="1">
+        <v>5</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="32">
+      <c r="A206" s="1">
+        <v>5</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D206" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>5</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D207" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="32">
+      <c r="A208" s="1">
+        <v>5</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="32">
+      <c r="A209" s="1">
+        <v>5</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D209" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="48">
+      <c r="A210" s="1">
+        <v>5</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="48">
+      <c r="A211" s="1">
+        <v>5</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>5</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D212" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="32">
+      <c r="A213" s="1">
+        <v>5</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="64">
+      <c r="A214" s="1">
+        <v>5</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D214" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="48">
+      <c r="A215" s="1">
+        <v>5</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="32">
+      <c r="A216" s="1">
+        <v>5</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D216" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>5</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="64">
+      <c r="A218" s="1">
+        <v>5</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D218" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="32">
+      <c r="A219" s="1">
+        <v>5</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="32">
+      <c r="A220" s="1">
+        <v>5</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D220" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>5</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>5</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D222" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="64">
+      <c r="A223" s="1">
+        <v>5</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D223" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="32">
+      <c r="A224" s="1">
+        <v>5</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>5</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="32">
+      <c r="A226" s="1">
+        <v>5</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D226" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="48">
+      <c r="A227" s="1">
+        <v>5</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>5</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="48">
+      <c r="A229" s="1">
+        <v>5</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>5</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>5</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="32">
+      <c r="A232" s="1">
+        <v>5</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="32">
+      <c r="A233" s="1">
+        <v>5</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D233" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="32">
+      <c r="A234" s="1">
+        <v>5</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D234" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="64">
+      <c r="A235" s="1">
+        <v>5</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D235" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="32">
+      <c r="A236" s="1">
+        <v>6</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D236" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="32">
+      <c r="A237" s="1">
+        <v>6</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D237" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>6</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>6</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>6</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
+        <v>6</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1">
+        <v>6</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="id1" display="1.3.1.1. What are NumPy and NumPy arrays?"/>
+    <hyperlink ref="A3" r:id="rId1" location="id1" display="1.3.1.1. What are NumPy and NumPy arrays?" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0D0A4C-BA45-F44C-ACF1-5C8949BDBD3E}">
+  <dimension ref="A1:F145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="34.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="68.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="72.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="31" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="48">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="64">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="32">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="32">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="48">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="64">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="32">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="32">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D22" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="32">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="32">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="32">
+      <c r="A25" s="4">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="48">
+      <c r="A26" s="4">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="64">
+      <c r="A28" s="4">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="32">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="48">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D31" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="32">
+      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D32" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="48">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="32">
+      <c r="A34" s="4">
+        <v>3</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D34" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4">
+        <v>3</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4">
+        <v>3</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D37" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="32">
+      <c r="A38" s="4">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D38" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4">
+        <v>3</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="32">
+      <c r="A40" s="4">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D40" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="32">
+      <c r="A41" s="4">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D41" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="48">
+      <c r="A43" s="4">
+        <v>3</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="48">
+      <c r="A44" s="4">
+        <v>3</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="32">
+      <c r="A45" s="4">
+        <v>3</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="32">
+      <c r="A46" s="4">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D46" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="32">
+      <c r="A47" s="4">
+        <v>3</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D47" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4">
+        <v>3</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4">
+        <v>3</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="32">
+      <c r="A50" s="4">
+        <v>3</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D50" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4">
+        <v>3</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="48">
+      <c r="A52" s="4">
+        <v>3</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D52" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4">
+        <v>3</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4">
+        <v>3</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4">
+        <v>3</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4">
+        <v>3</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4">
+        <v>3</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4">
+        <v>3</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4">
+        <v>3</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="32">
+      <c r="A138" s="4">
+        <v>9</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D138" s="4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="4">
+        <v>9</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="4">
+        <v>9</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D140" s="4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="4">
+        <v>9</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D141" s="4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="4">
+        <v>9</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="4">
+        <v>9</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="4">
+        <v>9</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="4">
+        <v>9</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reading Material/Reading Summaries.xlsx
+++ b/Reading Material/Reading Summaries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gearoidlacey/Documents/College/Masters/Thesis/Reading Material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92B574E-5496-574D-9989-2A627736E043}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D27F72-B089-DE41-A7C6-9D58EFD90975}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="387">
   <si>
     <t>Chapter</t>
   </si>
@@ -1133,6 +1133,275 @@
   </si>
   <si>
     <t>Scikit learn automatically detects when your trying to run a binary classification algorithm on a multiclass problem and automatically runs one versus all (or one v one in the case of SVM's)</t>
+  </si>
+  <si>
+    <t>Training Models</t>
+  </si>
+  <si>
+    <t>https://github.com/ageron/handson-ml/blob/master/math_linear_algebra.ipynb</t>
+  </si>
+  <si>
+    <t>In maths indices generally start at 1 whereas in programming they start at 0</t>
+  </si>
+  <si>
+    <t>The norm of a vector u ( ||u|| ) is a measure of the length(magnitude) of the vector</t>
+  </si>
+  <si>
+    <t>There are many different norms. The most popular is the Euclidean norm</t>
+  </si>
+  <si>
+    <t>Vectors of the same size can be added together (element wise) to produce another vector</t>
+  </si>
+  <si>
+    <t>Vector addition is commutative i.e a + b = b + a. Its also associative i.e (a + b) + c == a + (b + c)</t>
+  </si>
+  <si>
+    <t>Multiplying a vector by a scaler results in a change in scale of the original shape</t>
+  </si>
+  <si>
+    <t>A zero vector is a vector full of zeros. A unit vector has a norm of 1.</t>
+  </si>
+  <si>
+    <t>The normalised vector of a non null vector is the unit vector that points in the same direction as the original vector.</t>
+  </si>
+  <si>
+    <t>The dot product is the scalar product of 2 vectors. Its only defined between 2 vectors</t>
+  </si>
+  <si>
+    <t>The dot product is useful for calculating the angle between 2 vectors.</t>
+  </si>
+  <si>
+    <t>Dot product often used find angle between 2 vectors. If the dot product between 2 non null vectors is 0 then they are orthogonal</t>
+  </si>
+  <si>
+    <t>Dot product also used to project one vector onto another</t>
+  </si>
+  <si>
+    <t>A matrix is a rectangular array of scalars. Think of it as a list of vectors</t>
+  </si>
+  <si>
+    <t>Matrices are efficient at running operations on many vectors at once. Good at performing linear translations, rotations and scaling.</t>
+  </si>
+  <si>
+    <t>Simplest representation of a matrix in python is a list of lists</t>
+  </si>
+  <si>
+    <t>Square matrix: matrix with same number of rows and columns</t>
+  </si>
+  <si>
+    <t>Lower triangular matrix: all elements above main diagonal are 0</t>
+  </si>
+  <si>
+    <t>Upper triangular matrix: all elements below main diagonal are 0</t>
+  </si>
+  <si>
+    <t>The identity matrix of size n is an  n x n matrix with 1's as the diagonal</t>
+  </si>
+  <si>
+    <t>Matrix addition can be performed if the matrices have the same size. Its performed element wise.</t>
+  </si>
+  <si>
+    <t>Matrices can be multiplied by scalers (element wise operation)</t>
+  </si>
+  <si>
+    <t>Matrix multiplication can be done if the  number of columns in the first matrix equals the number of rows in the second matrix.</t>
+  </si>
+  <si>
+    <t>Matrix multiplication is not commutative.</t>
+  </si>
+  <si>
+    <t>A matrix multiplied by its identity matrix remains unchanged</t>
+  </si>
+  <si>
+    <t>The transpose of a matrix is  when the rows are converted to columns and vice versa.</t>
+  </si>
+  <si>
+    <t>A symmetric matrix is a matrix that’s equal to its transpose.</t>
+  </si>
+  <si>
+    <t>The product of a matrix by its transpose is always symmetric</t>
+  </si>
+  <si>
+    <t>Matrix addition moves the object. Can only add if they are same shape matrices</t>
+  </si>
+  <si>
+    <t>Matrix multiplication by a scaler rescales the object. Matrix multiplication can be used to project onto an axis</t>
+  </si>
+  <si>
+    <t>The dot product of a unit vector and a matrix performs a projection on an axis and gives us the coordinates of the new points on that axis</t>
+  </si>
+  <si>
+    <t>Use a closed form equation that directly computes best parameters Or use an iterative approach such as gradient descent.</t>
+  </si>
+  <si>
+    <t>Gradient descent: gradually tweak features over training set to minimise cost function</t>
+  </si>
+  <si>
+    <t>Linear regression uses weighted sum of input features.</t>
+  </si>
+  <si>
+    <t>In terms of linear regression, to find the value of ø that minimises the cost function can use the normal equation.</t>
+  </si>
+  <si>
+    <t>Using the normal equation is only good when the number of features is small. But it handles a large number of observations effieciently</t>
+  </si>
+  <si>
+    <t>Gradient descent can also be used to train linear regression.</t>
+  </si>
+  <si>
+    <t>Gradient descent analogy: stuck on mountain in fog. Go down in direction of steepest slope</t>
+  </si>
+  <si>
+    <t>Start by giving gradient descent random parameter (random initialization) and then improve it step by step until algorithm converges to a minimum.</t>
+  </si>
+  <si>
+    <t>Gradient descent step size is an important parameter (learning rate)</t>
+  </si>
+  <si>
+    <t>If learning rate too small, many steps required meaning takes longer to converge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If learning rate is too large you might miss the global minimum </t>
+  </si>
+  <si>
+    <t>Learning curves can have irregular shapes meaning the algorithm could converge at a local minimum not the global minimum</t>
+  </si>
+  <si>
+    <t>MSE is a convex cost function meaning theres no local minimum only a global minimum</t>
+  </si>
+  <si>
+    <t>Training model means searching for model parameters that minimise the cost function. The more parameters the model has the longer it takes to get the optimal model</t>
+  </si>
+  <si>
+    <r>
+      <t>To implement gradient descent you need to calculate how much cost function will change if you change a parameter sliglthly. This is called a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve"> partial derivative</t>
+    </r>
+  </si>
+  <si>
+    <t>Batch gradient descent uses entire dataset to determine gradient for each gradient step. Very slow.</t>
+  </si>
+  <si>
+    <t>High dimensional data does not slow gradient descent though</t>
+  </si>
+  <si>
+    <t>Once you have a gradient vector that goes uphill subtract it from the original parameters (remember linear algebra subtraction moves it closer to 0 on 2d axis)</t>
+  </si>
+  <si>
+    <t>Then mulitply the result of this by the learning rate to determine size of downhill step</t>
+  </si>
+  <si>
+    <t>To determine the number of iterations set it relatively high to start with and then stop it when the tolerance becomes very low</t>
+  </si>
+  <si>
+    <t>Stochastic gradient descent: only uses a single random observation at every step and computes the gradients based only on that instance. Much faster, good on large datasets</t>
+  </si>
+  <si>
+    <t>As its random its less regular than batch gradient. Doesn’t decrease gently tends to bounce around so the final values may not be as good as batch gradient descent(decreases on average)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If cost function is irregular stochastic gradient descent is good as it can jump out of local minima </t>
+  </si>
+  <si>
+    <t>To combat stochastic descent "jumping around" use simulated annealing where learning rate decreases gradually</t>
+  </si>
+  <si>
+    <t>Mini batch gradient descent computes gradients on small random sets of instances. Is better than Stochastic gradient descent especially if run on GPU</t>
+  </si>
+  <si>
+    <t>Polynomial regression allows you use a linear model on nonlinear data - add powers of each feature as new features.</t>
+  </si>
+  <si>
+    <t>The polynomialFeatures class in scikit learn adds combinations of features i.e. a2, a3, b2, b3 ab, ab2, a2b</t>
+  </si>
+  <si>
+    <t>To determine if your overfitting/underfitting look at learning curves. These are curves which look at models performance on training and validation sets as a function of trainin set size</t>
+  </si>
+  <si>
+    <t>To make plot train model on different sized subsets of training set.</t>
+  </si>
+  <si>
+    <r>
+      <t>If model is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve"> underfitting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adding more observations wont help, need to add better features.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If your model is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>overfitting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> adding more observations will help</t>
+    </r>
+  </si>
+  <si>
+    <t>Bias: error due to wrong assumptions i.e. assuming data is linear when its quadratic</t>
+  </si>
+  <si>
+    <t>Variance: models excessive sensitivity to variations in training data.</t>
+  </si>
+  <si>
+    <t>Irreducible error: noisiness of the data. Error for features that are not included</t>
+  </si>
+  <si>
+    <t>Ridge regression: sum of each feature coefficient squared is added to the cost function forces it to reduce the coefficients in the model which make it generalise better</t>
+  </si>
+  <si>
+    <t>Alpha controls level of regularistation. If alpha is large all coefficients are close to 0 meaning line goes through the datas mean. If alpha is 0 its just basic linear regression</t>
+  </si>
+  <si>
+    <t>The intercept is never regularised.</t>
+  </si>
+  <si>
+    <t>Lasso essently performs feature selection as it sets least important features to 0</t>
+  </si>
+  <si>
+    <t>Elastic Net is a middle ground between ridge and lasso regression. The regularisation term is a mix of both. If r = 0 then your doing ridge regression, if its 1 your doing lasso.</t>
+  </si>
+  <si>
+    <t>Lasso is not good when number of features is greater than number of observations</t>
+  </si>
+  <si>
+    <t>Early Stopping used when iterative training algorithms (GD) validation errors reach a minimum</t>
   </si>
 </sst>
 </file>
@@ -1508,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A85" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C90" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4519,8 +4788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0D0A4C-BA45-F44C-ACF1-5C8949BDBD3E}">
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4530,7 +4799,7 @@
     <col min="3" max="3" width="68.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="72.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="38.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="66.33203125" style="4" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -5167,7 +5436,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:6">
       <c r="A49" s="4">
         <v>3</v>
       </c>
@@ -5178,7 +5447,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="32">
+    <row r="50" spans="1:6" ht="32">
       <c r="A50" s="4">
         <v>3</v>
       </c>
@@ -5192,7 +5461,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:6">
       <c r="A51" s="4">
         <v>3</v>
       </c>
@@ -5203,7 +5472,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="48">
+    <row r="52" spans="1:6" ht="48">
       <c r="A52" s="4">
         <v>3</v>
       </c>
@@ -5217,68 +5486,942 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:6">
       <c r="A53" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>314</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="32">
       <c r="A54" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>314</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>314</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="32">
       <c r="A56" s="4">
-        <v>3</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="32">
       <c r="A57" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>314</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>314</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>314</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="32">
       <c r="A60" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>294</v>
+        <v>314</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="32">
+      <c r="A61" s="4">
+        <v>4</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4">
+        <v>4</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="32">
+      <c r="A63" s="4">
+        <v>4</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4">
+        <v>4</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="4">
+        <v>4</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="32">
+      <c r="A66" s="4">
+        <v>4</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="4">
+        <v>4</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="4">
+        <v>4</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="4">
+        <v>4</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="4">
+        <v>4</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="4">
+        <v>4</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="32">
+      <c r="A72" s="4">
+        <v>4</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="4">
+        <v>4</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="32">
+      <c r="A74" s="4">
+        <v>4</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="4">
+        <v>4</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="4">
+        <v>4</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="32">
+      <c r="A77" s="4">
+        <v>4</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="4">
+        <v>4</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="4">
+        <v>4</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="4">
+        <v>4</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="32">
+      <c r="A81" s="4">
+        <v>4</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="32">
+      <c r="A82" s="4">
+        <v>4</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4">
+        <v>4</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4">
+        <v>4</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4">
+        <v>4</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4">
+        <v>4</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="32">
+      <c r="A87" s="4">
+        <v>4</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D87" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="32">
+      <c r="A88" s="4">
+        <v>4</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4">
+        <v>4</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D89" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="32">
+      <c r="A90" s="4">
+        <v>4</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="32">
+      <c r="A91" s="4">
+        <v>4</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D91" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4">
+        <v>4</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="32">
+      <c r="A93" s="4">
+        <v>4</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="32">
+      <c r="A94" s="4">
+        <v>4</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4">
+        <v>4</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="32">
+      <c r="A96" s="4">
+        <v>4</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4">
+        <v>4</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="32">
+      <c r="A98" s="4">
+        <v>4</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D98" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="32">
+      <c r="A99" s="4">
+        <v>4</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="48">
+      <c r="A100" s="4">
+        <v>4</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="32">
+      <c r="A101" s="4">
+        <v>4</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D101" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="32">
+      <c r="A102" s="4">
+        <v>4</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4">
+        <v>4</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="48">
+      <c r="A104" s="4">
+        <v>4</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="32">
+      <c r="A105" s="4">
+        <v>4</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D105" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="32">
+      <c r="A106" s="4">
+        <v>4</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D106" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="48">
+      <c r="A107" s="4">
+        <v>4</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4">
+        <v>4</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="48">
+      <c r="A109" s="4">
+        <v>4</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="32">
+      <c r="A110" s="4">
+        <v>4</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D110" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="32">
+      <c r="A111" s="4">
+        <v>4</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="32">
+      <c r="A112" s="4">
+        <v>4</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D112" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="32">
+      <c r="A113" s="4">
+        <v>4</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="32">
+      <c r="A114" s="4">
+        <v>4</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="48">
+      <c r="A115" s="4">
+        <v>4</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D115" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="4">
+        <v>4</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="32">
+      <c r="A117" s="4">
+        <v>4</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D117" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="4">
+        <v>4</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D118" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="32">
+      <c r="A119" s="4">
+        <v>4</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="4">
+        <v>4</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="4">
+        <v>4</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="48">
+      <c r="A122" s="4">
+        <v>4</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="48">
+      <c r="A123" s="4">
+        <v>4</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D123" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="4">
+        <v>4</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="4">
+        <v>4</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="32">
+      <c r="A126" s="4">
+        <v>4</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="48">
+      <c r="A127" s="4">
+        <v>4</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="32">
+      <c r="A128" s="4">
+        <v>4</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="32">
+      <c r="A129" s="4">
+        <v>4</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="4">
+        <v>4</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="4">
+        <v>4</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="4">
+        <v>4</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="4">
+        <v>4</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="4">
+        <v>4</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="32">
@@ -5371,5 +6514,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>